--- a/Test Data Gramatika.xlsx
+++ b/Test Data Gramatika.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="120" windowWidth="14880" windowHeight="8025"/>
+    <workbookView xWindow="480" yWindow="120" windowWidth="14880" windowHeight="8025" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1382" uniqueCount="667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1389" uniqueCount="671">
   <si>
     <t>Actual Sentence</t>
   </si>
@@ -2051,6 +2051,18 @@
   </si>
   <si>
     <t>RBM VBW DTC PRQ_CCP JJN_CCP NNC CCB FW FW CCP VBTF RBL CCB NNC_CCP NNC CCT FW FW CCT DTCP NNC_CCP NNP JJC FW CCA FW PMP</t>
+  </si>
+  <si>
+    <t>Suggestion Type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Error Classification</t>
+  </si>
+  <si>
+    <t>Section</t>
+  </si>
+  <si>
+    <t>From Which File</t>
   </si>
 </sst>
 </file>
@@ -2094,7 +2106,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -2132,11 +2144,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="164">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2532,6 +2564,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2836,8 +2880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C176" sqref="C176"/>
+    <sheetView topLeftCell="A76" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D90" sqref="D90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8958,14 +9002,56 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:M40"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="59" customWidth="1"/>
+    <col min="2" max="2" width="36.5703125" customWidth="1"/>
+    <col min="3" max="3" width="27.28515625" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" customWidth="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1"/>
+    <col min="6" max="6" width="13.140625" customWidth="1"/>
+    <col min="7" max="7" width="12.85546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="152" customFormat="1" ht="84" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>668</v>
+      </c>
+      <c r="F1" s="160" t="s">
+        <v>669</v>
+      </c>
+      <c r="G1" s="160" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" s="152" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="161"/>
+      <c r="E2" s="161"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="163"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
